--- a/biology/Médecine/1693_en_santé_et_médecine/1693_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1693_en_santé_et_médecine/1693_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1693_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1693_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1693 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1693_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1693_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1693-1694, le froid et la famine sévissent sur le royaume : on compte de 1,6 million à 2 millions de victimes[1].
-Guy-Crescent Fagon devient premier médecin de Louis XIV[2].
-La maison médicale de Louis XIV est composée de 132 personnes, dont dix-huit médecins ayant un emploi ou un office[2].
-Fondation de l'hospice de Houdan par le roi Louis XIV[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1693-1694, le froid et la famine sévissent sur le royaume : on compte de 1,6 million à 2 millions de victimes.
+Guy-Crescent Fagon devient premier médecin de Louis XIV.
+La maison médicale de Louis XIV est composée de 132 personnes, dont dix-huit médecins ayant un emploi ou un office.
+Fondation de l'hospice de Houdan par le roi Louis XIV.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1693_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1693_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Théodore de Mayerne : La pratique de médecine, Lyon : Anisson &amp; Posuel, 1693, posthume.</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1693_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1693_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>11 août : Jacques Daviel (mort en 1762), chirurgien et ophtalmologue français.
 5 octobre : Johann Christian Buxbaum (mort en 1730), médecin, botaniste et explorateur allemand.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1693_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1693_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>10 octobre : Charles Patin (né en 1633), médecin et numismate français.</t>
         </is>
